--- a/spreadsheet/macrofree/azurefirewall_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurefirewall_sg_checklist.es.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Cree fácilmente arquitecturas radiales y transitivas con servicios de seguridad nativos para la gobernanza y la protección del tráfico.  Para obtener más información sobre las topologías de red, consulte la documentación de Azure Cloud Adoption Framework.</t>
+          <t>Cree fácilmente arquitecturas transitivas y radiales con servicios de seguridad nativos para la gobernanza y la protección del tráfico.  Para obtener más información sobre las topologías de red, consulte la documentación de Azure Cloud Adoption Framework.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Cree directivas de Azure Firewall para controlar la posición de seguridad en entornos de red globales. Asigne directivas a todas las instancias de Azure Firewall.</t>
+          <t>Cree directivas de Azure Firewall para controlar la posición de seguridad en los entornos de red globales. Asigne directivas a todas las instancias de Azure Firewall.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permita que las políticas granulares cumplan con los requisitos de regiones específicas. Delegue políticas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles (RBAC). Algunas configuraciones son específicas por instancia, por ejemplo, las reglas de DNAT y la configuración de DNS, por lo que es posible que se requieran varias políticas especializadas.</t>
+          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permitir políticas granulares para cumplir con los requisitos de regiones específicas. Delegue políticas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles (RBAC). Algunas opciones de configuración son específicas por instancia, por ejemplo, las reglas de DNAT y la configuración de DNS, por lo que es posible que se requieran varias políticas especializadas.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las arquitecturas tradicionales de Hub &amp; Spokes, en este artículo se explican los detalles de varias regiones. En el caso de los centros virtuales protegidos (Azure Virtual WAN), la intención y las directivas de enrutamiento deben configurarse para proteger las comunicaciones entre centros y de sucursal a sucursal. En el caso de las cargas de trabajo diseñadas para ser resistentes a errores y tolerantes a errores, recuerde tener en cuenta que las instancias de Azure Firewall y Azure Virtual Network son recursos regionales.</t>
+          <t>En el caso de las arquitecturas tradicionales de Hub &amp; Spokes, en este artículo se explican los detalles de varias regiones. En el caso de los centros de conectividad virtual protegidos (Azure Virtual WAN), la intención y las directivas de enrutamiento deben configurarse para proteger las comunicaciones entre centros y de sucursal a sucursal. En el caso de las cargas de trabajo diseñadas para ser resistentes a errores y tolerantes a errores, recuerde tener en cuenta que las instancias de Azure Firewall y Azure Virtual Network son recursos regionales.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Supervise de cerca el indicador de métricas clave del estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW. Además, Azure Firewall ahora se integra con Azure Resource Health. Con la comprobación de estado de los recursos de Azure Firewall, ahora puede ver el estado de mantenimiento de Azure Firewall y solucionar los problemas de servicio que podrían afectar a los recursos de Azure Firewall.</t>
+          <t>Supervise de cerca el indicador de métricas clave del estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW. Además, Azure Firewall ahora se integra con Azure Resource Health. Con la comprobación del estado de los recursos de Azure Firewall, ahora puede ver el estado de mantenimiento de Azure Firewall y solucionar los problemas de servicio que podrían afectar al recurso de Azure Firewall.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permita que las políticas granulares cumplan con los requisitos de regiones específicas. Cada política puede contener diferentes conjuntos de reglas DNAT, de red y de aplicación con prioridad, acción y orden de procesamiento específicos. Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos. En este artículo se explica cómo se procesan las reglas.</t>
+          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permitir políticas granulares para cumplir con los requisitos de regiones específicas. Cada política puede contener diferentes conjuntos de reglas de DNAT, red y aplicación con prioridad, acción y orden de procesamiento específicos. Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos. En este artículo se explica cómo se procesan las reglas.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar esta característica, los clientes de las redes virtuales apuntan a Azure Firewall como servidor DNS. Protegerá la infraestructura DNS interna a la que no se accederá ni se expondrá directamente. Azure Firewall también debe estar configurado para usar DNS personalizado que se usará para reenviar consultas DNS.</t>
+          <t>Al habilitar esta característica, los clientes de las redes virtuales apuntan a Azure Firewall como servidor DNS. Protegerá la infraestructura interna del DNS a la que no se accederá ni expondrá directamente. Azure Firewall también debe configurarse para usar DNS personalizado que se usará para reenviar consultas DNS.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure los UDR para forzar el tráfico a través de Azure Firewall para la conectividad "SpoketoSpoke", "SpoketoInternet" y "SpoketoHybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
+          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure las UDR para forzar el tráfico a través de Azure Firewall para la conectividad "SpoketoSpoke", "SpoketoInternet" y "SpoketoHybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Con la característica de proxy explícito habilitada en la ruta de salida, puede configurar una configuración de proxy en la aplicación web de envío (como un explorador web) con Azure Firewall configurado como proxy. Como resultado, el tráfico web llegará a la dirección IP privada del firewall y, por lo tanto, sale directamente del firewall sin usar una UDR. Esta característica también facilita el uso de múltiples firewalls sin modificar las rutas de red existentes.</t>
+          <t>Con la característica de proxy explícito habilitada en la ruta de acceso de salida, puede configurar una configuración de proxy en la aplicación web de envío (como un explorador web) con Azure Firewall configurado como proxy. Como resultado, el tráfico web llegará a la dirección IP privada del firewall y, por lo tanto, sale directamente del firewall sin usar una UDR. Esta característica también facilita el uso de múltiples firewalls sin modificar las rutas de red existentes.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use el filtrado de nombres de dominio completos (FQDN) en las reglas de red.</t>
+          <t>Utilice el filtrado de nombres de dominio completos (FQDN) en las reglas de red.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Puede usar FQDN en función de la resolución de DNS en Azure Firewall y directivas de firewall. Esta capacidad le permite filtrar el tráfico saliente con cualquier protocolo TCP/UDP (incluidos NTP, SSH, RDP y más). Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red. Para obtener información sobre cómo funciona, consulte Filtrado de FQDN de Azure Firewall en reglas de red.</t>
+          <t>Puede usar FQDN en función de la resolución de DNS en Azure Firewall y las directivas de firewall. Esta capacidad le permite filtrar el tráfico saliente con cualquier protocolo TCP/UDP (incluidos NTP, SSH, RDP y más). Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red. Para obtener información sobre cómo funciona, consulte Filtrado de FQDN de Azure Firewall en reglas de red.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall se puede implementar en tres SKU diferentes: Básico, Estándar y Premium. Se recomienda Azure Firewall Premium para proteger aplicaciones muy confidenciales (como el procesamiento de pagos). Azure Firewall Standard se recomienda para los clientes que buscan un firewall de capa 3 a capa 7 y necesita escalado automático para controlar períodos de tráfico máximo de hasta 30 Gbps. Azure Firewall Basic se recomienda para clientes de pymes con necesidades de rendimiento de 250 Mbps. Si es necesario, es posible cambiar a una versión anterior o actualizar entre Standard y Premium, como se documenta aquí.   Para más información, consulte Elección de la SKU de Azure Firewall adecuada para satisfacer sus necesidades.</t>
+          <t>Azure Firewall se puede implementar en tres SKU diferentes: Básico, Estándar y Premium. Se recomienda Azure Firewall Premium para proteger aplicaciones muy confidenciales (como el procesamiento de pagos). Azure Firewall Standard se recomienda para los clientes que buscan un firewall de capa 3 a capa 7 y necesita escalado automático para controlar los períodos de tráfico máximo de hasta 30 Gbps. Azure Firewall Basic se recomienda para los clientes de pymes con necesidades de rendimiento de 250 Mbps. Si es necesario, es posible cambiar a una versión anterior o actualizarla entre Estándar y Premium, como se documenta aquí.   Para más información, consulte Elección de la SKU de Azure Firewall adecuada para satisfacer sus necesidades.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Puede usar una instancia central de Azure Firewall en la red virtual del centro de conectividad o en el centro de conectividad segura de Virtual WAN y compartir el mismo firewall entre muchas redes virtuales de radio que estén conectadas al mismo centro de conectividad desde la misma región. Asegúrese de que no haya tráfico inesperado entre regiones como parte de la topología en estrella tipo hub-radi.</t>
+          <t>Puede usar una instancia central de Azure Firewall en la red virtual del centro de conectividad o en el centro de conectividad segura de Virtual WAN y compartir el mismo firewall entre muchas redes virtuales de radio que estén conectadas al mismo centro de conectividad desde la misma región. Asegúrese de que no haya tráfico inesperado entre regiones como parte de la topología en estrella tipo hub-andher.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>El registro de flujos principales (conocido en la industria como flujos de grasa) muestra las conexiones principales que contribuyen al rendimiento más alto a través del firewall. Se recomienda revisar periódicamente el tráfico procesado por Azure Firewall y buscar posibles optimizaciones para reducir la cantidad de tráfico que atraviesa el firewall.</t>
+          <t>El registro de Top Flows (conocido en el sector como Fat Flows) muestra las principales conexiones que contribuyen al mayor rendimiento a través del firewall. Se recomienda revisar periódicamente el tráfico procesado por Azure Firewall y buscar posibles optimizaciones para reducir la cantidad de tráfico que atraviesa el firewall.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Para identificar las implementaciones de Azure Firewall no utilizadas, empiece por analizar las métricas de supervisión y las UDR asociadas a las subredes que apuntan a la dirección IP privada del firewall. Combine esa información con otras validaciones, por ejemplo, si la instancia de Azure Firewall tiene reglas (clásicas) para NAT, red y aplicación, o incluso si la configuración de Proxy DNS está configurada en Deshabilitado, y con documentación interna sobre el entorno y las implementaciones. Puede detectar implementaciones que sean rentables a lo largo del tiempo.  Para obtener más información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall y uso de puertos SNAT.</t>
+          <t>Para identificar las implementaciones de Azure Firewall sin usar, empiece por analizar las métricas de supervisión y las unidades definidas al usuario asociadas a las subredes que apuntan a la dirección IP privada del firewall. Combine esa información con otras validaciones, por ejemplo, si la instancia de Azure Firewall tiene reglas (clásicas) para NAT, red y aplicación, o incluso si la configuración de Proxy DNS está configurada en Deshabilitado, y con documentación interna sobre el entorno y las implementaciones. Puede detectar implementaciones que sean rentables a lo largo del tiempo.  Para obtener más información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall y uso de puertos SNAT.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager. Las políticas se facturan en función de las asociaciones de firewall. Una póliza con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para obtener más información, consulte Precios: Azure Firewall Manager.</t>
+          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager. Las políticas se facturan en función de las asociaciones de firewall. Una póliza con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para más información, consulte Precios: Azure Firewall Manager.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Valide si todas las direcciones IP públicas asociadas están en uso. Si no están en uso, desconsocie y elimínelos. Evalúe la utilización del puerto SNAT antes de eliminar cualquier dirección IP. Solo usarás el número de direcciones IP públicas que necesite tu firewall. Para más información, consulte Supervisión de registros y métricas de Azure Firewall y uso de puertos SNAT.</t>
+          <t>Valida si todas las direcciones IP públicas asociadas están en uso. Si no están en uso, desconsocie y elimínelos. Evalúe la utilización del puerto SNAT antes de eliminar cualquier dirección IP. Solo usarás el número de direcciones IP públicas que necesite tu firewall. Para más información, consulte Supervisión de los registros y métricas de Azure Firewall y el uso de puertos SNAT.</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Los registros de diagnóstico son un componente clave para muchas herramientas y estrategias de supervisión de Azure Firewall y deben estar habilitados. Puede supervisar Azure Firewall mediante registros de firewall o libros. También puede usar registros de actividad para auditar operaciones en recursos de Azure Firewall.</t>
+          <t>Los registros de diagnóstico son un componente clave para muchas herramientas y estrategias de supervisión de Azure Firewall y deben estar habilitados. Puede supervisar Azure Firewall mediante registros de firewall o libros. También puede usar registros de actividad para auditar operaciones en los recursos de Azure Firewall.</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>La experiencia del portal de Azure Firewall ahora incluye un nuevo libro en la interfaz de usuario de la sección Supervisión, por lo que ya no es necesaria una instalación independiente. Con el libro de Azure Firewall, puede extraer información valiosa de los eventos de Azure Firewall, profundizar en las reglas de red y aplicaciones, y examinar las estadísticas relativas a las actividades del firewall en direcciones URL, puertos y direcciones.</t>
+          <t>La experiencia del portal de Azure Firewall ahora incluye un nuevo libro en la interfaz de usuario de la sección Supervisión, por lo que ya no es necesaria una instalación independiente. Con el libro de Azure Firewall, puede extraer información valiosa de los eventos de Azure Firewall, profundizar en las reglas de red y aplicaciones y examinar estadísticas sobre las actividades del firewall en direcciones URL, puertos y direcciones.</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Se deben crear alertas para supervisar al menos el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW. Para obtener información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall.</t>
+          <t>Las alertas deben crearse para supervisar al menos el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas del sondeo de latencia de AZFW. Para obtener información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall.</t>
         </is>
       </c>
       <c r="E43" s="21" t="n"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de uso bajo, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
+          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de baja utilización, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="E45" s="21" t="n"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>Se proporcionan consultas de ejemplo para Azure Firewall. Estos le permitirán identificar rápidamente lo que está sucediendo dentro de su firewall y verificar qué regla se activó o qué regla está permitiendo/bloqueando una solicitud.</t>
+          <t>Se proporcionan consultas de ejemplo para Azure Firewall. Estos le permitirán identificar rápidamente lo que está sucediendo dentro de su firewall y verificar qué regla se activó o qué regla permite/bloquea una solicitud.</t>
         </is>
       </c>
       <c r="E46" s="21" t="n"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de uso bajo, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
+          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de baja utilización, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="E47" s="21" t="n"/>
@@ -2415,12 +2415,12 @@
       <c r="B48" s="21" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar las categorías web para permitir o denegar el acceso saliente de forma masiva.</t>
+          <t>Considere la posibilidad de utilizar categorías web para permitir o denegar el acceso saliente de forma masiva.</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>En lugar de crear y mantener explícitamente una larga lista de sitios públicos de Internet, considere la posibilidad de usar las categorías web de Azure Firewall. Esta función categorizará dinámicamente el contenido web y permitirá la creación de reglas de aplicación compactas.</t>
+          <t>En lugar de crear y mantener explícitamente una larga lista de sitios públicos de Internet, considere el uso de las categorías web de Azure Firewall. Esta función categorizará dinámicamente el contenido web y permitirá la creación de reglas de aplicación compactas.</t>
         </is>
       </c>
       <c r="E48" s="21" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento, tal como se documenta en esta página.</t>
+          <t>Si se requiere que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento, tal y como se documenta en esta página.</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall admite actualmente 2496 puertos por dirección IP pública por instancia de conjunto de escalado de máquinas virtuales de back-end. De forma predeterminada, hay dos instancias de Virtual Machine Scale Set. Por lo tanto, hay 4992 puertos por IP de destino de flujo, puerto de destino y protocolo (TCP o UDP). El firewall se escala hasta un máximo de 20 instancias. Puede evitar los límites configurando implementaciones de Azure Firewall con un mínimo de cinco direcciones IP públicas para implementaciones susceptibles al agotamiento de SNAT.</t>
+          <t>Actualmente, Azure Firewall admite 2496 puertos por dirección IP pública por instancia de conjunto de escalado de máquinas virtuales de back-end. De forma predeterminada, hay dos instancias de Virtual Machine Scale Set. Por lo tanto, hay 4992 puertos por IP de destino de flujo, puerto de destino y protocolo (TCP o UDP). El firewall se escala hasta un máximo de 20 instancias. Puede evitar los límites configurando implementaciones de Azure Firewall con un mínimo de cinco direcciones IP públicas para las implementaciones susceptibles al agotamiento de SNAT.</t>
         </is>
       </c>
       <c r="E50" s="21" t="n"/>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/azurefirewall_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurefirewall_sg_checklist.es.xlsx
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Hay límites en la estructura de la política, incluido el número de reglas y grupos de recopilación de reglas, el tamaño total de la política y los destinos de origen y destino. Asegúrese de redactar su póliza y mantenerse dentro de los umbrales documentados.</t>
+          <t>Hay límites en la estructura de la política, incluido el número de reglas y grupos de recopilación de reglas, el tamaño total de la política y los destinos de origen y destino. Asegúrese de redactar su póliza y mantenerse por debajo de los umbrales documentados.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure las UDR para forzar el tráfico a través de Azure Firewall para la conectividad "SpoketoSpoke", "SpoketoInternet" y "SpoketoHybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
+          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure las UDR para forzar el tráfico a través de Azure Firewall para la conectividad "Spoke-to-Spoke", "Spoke-to-Internet" y "Spoke-to-Hybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Si se requiere que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento, tal y como se documenta en esta página.</t>
+          <t>Si es necesario que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento tal y como se documenta en Rendimiento del firewall.</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>

--- a/spreadsheet/macrofree/azurefirewall_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurefirewall_sg_checklist.es.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager con topologías de red tradicionales de Hub &amp; Spokes o Azure Virtual WAN para implementar y administrar instancias de Azure Firewall.</t>
+          <t>Implemente Azure Firewall en varias zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Cree fácilmente arquitecturas transitivas y radiales con servicios de seguridad nativos para la gobernanza y la protección del tráfico.  Para obtener más información sobre las topologías de red, consulte la documentación de Azure Cloud Adoption Framework.</t>
+          <t>Implemente Azure Firewall en varias zonas de disponibilidad para mantener un nivel específico de resistencia. Si una zona experimenta una interrupción, otra zona continúa atendiendo el tráfico.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1082,7 +1082,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>833670b0-5f05-4810-96be-dd79df30775d</t>
+          <t>881f08f8-32f0-420d-b4f7-f0660a0402cb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Cree directivas de Azure Firewall para controlar la posición de seguridad en los entornos de red globales. Asigne directivas a todas las instancias de Azure Firewall.</t>
+          <t>Supervise las métricas de Azure Firewall en un área de trabajo de Log Analytics. Supervise de cerca las métricas que indican el estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, el uso del puerto SNAT y las métricas de sondeo de latencia de AZFW.  Use Azure Service Health para supervisar el estado de Azure Firewall.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permitir políticas granulares para cumplir con los requisitos de regiones específicas. Delegue políticas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles (RBAC). Algunas opciones de configuración son específicas por instancia, por ejemplo, las reglas de DNAT y la configuración de DNS, por lo que es posible que se requieran varias políticas especializadas.</t>
+          <t>Supervise las métricas de recursos y el estado del servicio para poder detectar cuándo se degrada un estado del servicio y tomar medidas proactivas para evitar errores.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1116,7 +1116,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>5b0404e7-a3be-4103-aff9-903f9fe447d2</t>
+          <t>a61daca7-ba87-4a5f-8d72-6c4e61f1f8a1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Migre las reglas de Azure Firewall clásico a las directivas de Azure Firewall Manager para las implementaciones existentes.</t>
+          <t>Configure Azure Firewall en modo de tunelización forzada si necesita enrutar todo el tráfico enlazado a Internet a un próximo salto designado en lugar de directamente a Internet. Esta recomendación no se aplica a Virtual WAN. &lt;BR&gt;&lt;BR&gt; Azure Firewall debe tener conexión directa a Internet. Si AzureFirewallSubnet aprende una ruta predeterminada a la red local a través del protocolo de puerta de enlace fronteriza, debe configurar Azure Firewall en modo de tunelización forzada. Puede usar la característica de tunelización forzada para agregar otro espacio de direcciones /26 para la subred de administración de Azure Firewall. Asigne a la subred el nombre AzureFirewallManagementSubnet. Si tiene una instancia de Azure Firewall existente que no puede volver a configurar en el modo de tunelización forzada, cree una UDR con una ruta 0.0.0.0/0. Establezca el valor de NextHopType como Internet. Para mantener la conectividad a Internet, asocie la UDR con AzureFirewallSubnet.  Establezca la dirección IP pública en None para implementar un plano de datos totalmente privado al configurar Azure Firewall en modo de tunelización forzada. Sin embargo, el plano de administración sigue requiriendo una dirección IP pública solo con fines de administración. El tráfico interno de las redes virtuales y locales no usa esa dirección IP pública.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones existentes, migre las reglas de Azure Firewall a las directivas de Azure Firewall Manager. Use Azure Firewall Manager para administrar de forma centralizada los firewalls y las directivas.  Para más información, consulte Migración a Azure Firewall Premium.</t>
+          <t>Use la tunelización forzada para no exponer los recursos de Azure directamente a Internet. Este enfoque reduce la superficie de ataque y minimiza el riesgo de amenazas externas. Para aplicar las directivas corporativas y los requisitos de cumplimiento de forma más eficaz, enrute todo el tráfico enlazado a Internet a través de un firewall local o una NVA.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1150,7 +1150,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>182b6ed7-94f3-434c-be79-ce6a93d6560c</t>
+          <t>11c69324-ff8f-48aa-9e9e-9c954e29a121</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Revise la lista de problemas conocidos de Azure Firewall.</t>
+          <t>Cree reglas para políticas de firewall en una estructura jerárquica para superponer una política base central. Para más información, consulte Uso de directivas de Azure Firewall para procesar reglas. &lt;BR&gt;&lt;BR&gt; Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>El grupo de productos de Azure Firewall mantiene una lista actualizada de problemas conocidos en esta ubicación. Esta lista contiene información importante relacionada con el comportamiento por diseño, las correcciones en construcción, las limitaciones de la plataforma, junto con posibles soluciones alternativas o mitigaciones.</t>
+          <t>Organice las reglas en una estructura jerárquica para que las políticas granulares puedan cumplir con los requisitos de regiones específicas. Cada política puede contener diferentes conjuntos de reglas de traducción de direcciones de red de destino (DNAT), redes y aplicaciones que tienen prioridades, acciones y órdenes de procesamiento específicos.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>d34dc09b-f98f-47d4-92b7-79f77b9a755d</t>
+          <t>29a3b176-03b3-4273-b9f8-cdddee154009</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la directiva de Azure Firewall se adhiere a los límites y recomendaciones de Azure Firewall.</t>
+          <t>Configure los proveedores de socios de seguridad compatibles dentro de Firewall Manager para proteger las conexiones salientes. &lt;BR&gt;&lt;BR&gt; Este escenario requiere Virtual WAN con una puerta de enlace de VPN S2S en el centro de conectividad, ya que usa un túnel IPsec para conectarse a la infraestructura del proveedor. Los proveedores de servicios de seguridad administrados pueden cobrar tarifas de licencia adicionales y limitar el rendimiento de las conexiones IPsec. También puede utilizar soluciones alternativas, como Zscaler Cloud Connector.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Hay límites en la estructura de la política, incluido el número de reglas y grupos de recopilación de reglas, el tamaño total de la política y los destinos de origen y destino. Asegúrese de redactar su póliza y mantenerse por debajo de los umbrales documentados.</t>
+          <t>Permita que los proveedores de asociados de seguridad de Azure Firewall aprovechen las mejores ofertas de seguridad en la nube, que proporcionan protección avanzada para su tráfico de Internet. Estos proveedores ofrecen un filtrado especializado y consciente del usuario y capacidades integrales de detección de amenazas que mejoran su postura de seguridad general.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>86b20eea-4ed0-4f79-adf4-4ff5f7edc227</t>
+          <t>f03b413a-c06c-4f22-98ad-6798b74f825e</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Firewall en varias zonas de disponibilidad para obtener un acuerdo de nivel de servicio (SLA) superior.</t>
+          <t>Habilite la configuración de proxy DNS de Azure Firewall. &lt;BR&gt;&lt;BR&gt; Configure también Azure Firewall para usar DNS personalizado para reenviar consultas DNS.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall proporciona diferentes acuerdos de nivel de servicio cuando se implementa en una sola zona de disponibilidad y cuando se implementa en varias zonas. Para más información, consulte Acuerdo de Nivel de Servicio para Azure Firewall. Para obtener información sobre todos los acuerdos de nivel de servicio de Azure, consulte Resumen de acuerdos de nivel de servicio para los servicios de Azure.</t>
+          <t>Habilite esta característica para apuntar a los clientes de las redes virtuales a Azure Firewall como servidor DNS. Esta característica protege la infraestructura DNS interna a la que no se accede ni se expone directamente.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>7f303799-88af-49d0-ae85-73ce4bf33f76</t>
+          <t>98a53328-cf36-4d0e-b7dc-a15a8957ab3b</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>En entornos de varias regiones, implemente una instancia de Azure Firewall por región.</t>
+          <t>Configure las UDR para forzar el tráfico a través de Azure Firewall en una arquitectura tradicional de concentrador y radio para la conectividad de radio a radio, de radio a Internet y de radio a híbrido. &lt;BR&gt;&lt;BR&gt; En Virtual WAN, configure la intención de enrutamiento y las directivas para redirigir el tráfico privado o el tráfico de Internet a través de la instancia de Azure Firewall integrada en el centro. &lt;BR&gt;&lt;BR&gt; Si no puede aplicar una UDR y solo necesita el redireccionamiento del tráfico web, use Azure Firewall como proxy explícito en la ruta de acceso de salida. Puede configurar una opción de proxy en la aplicación de envío, como un explorador web, al configurar Azure Firewall como proxy.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las arquitecturas tradicionales de Hub &amp; Spokes, en este artículo se explican los detalles de varias regiones. En el caso de los centros de conectividad virtual protegidos (Azure Virtual WAN), la intención y las directivas de enrutamiento deben configurarse para proteger las comunicaciones entre centros y de sucursal a sucursal. En el caso de las cargas de trabajo diseñadas para ser resistentes a errores y tolerantes a errores, recuerde tener en cuenta que las instancias de Azure Firewall y Azure Virtual Network son recursos regionales.</t>
+          <t>Envíe tráfico a través del firewall para inspeccionar el tráfico y ayudar a identificar y bloquear el tráfico malicioso. &lt;BR&gt;&lt;BR&gt; Use Azure Firewall como proxy explícito para el tráfico saliente, de modo que el tráfico web llegue a la dirección IP privada del firewall y, por lo tanto, salga directamente del firewall sin usar una UDR. Esta característica también facilita el uso de múltiples firewalls sin modificar las rutas de red existentes.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>69dcdc93-55e9-454e-9128-b9996b089e2c</t>
+          <t>5a33a8c3-32ad-4df5-b10e-ae88d9341652</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Supervise las métricas de Azure Firewall y el estado de mantenimiento de los recursos.</t>
+          <t>Use el filtrado de FQDN en las reglas de red. Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Supervise de cerca el indicador de métricas clave del estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW. Además, Azure Firewall ahora se integra con Azure Resource Health. Con la comprobación del estado de los recursos de Azure Firewall, ahora puede ver el estado de mantenimiento de Azure Firewall y solucionar los problemas de servicio que podrían afectar al recurso de Azure Firewall.</t>
+          <t>Use FQDN en las reglas de red de Azure Firewall para que los administradores puedan administrar nombres de dominio en lugar de varias direcciones IP, lo que simplifica la administración. Esta resolución dinámica garantiza que las reglas de firewall se actualicen automáticamente cuando cambien las direcciones IP de los dominios.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>dbadd7db-ba2d-4b33-bf38-3251fe3fb6fb</t>
+          <t>468a142a-2b62-4379-90d1-46a7d351716f</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Si es necesario enrutar todo el tráfico enlazado a Internet a un próximo salto designado en lugar de ir directamente a Internet, configure Azure Firewall en modo de tunelización forzada (no se aplica a Azure Virtual WAN).</t>
+          <t>Use etiquetas de servicio de Azure Firewall en lugar de direcciones IP específicas para proporcionar acceso selectivo a servicios específicos en Azure, Microsoft Dynamics 365 y Microsoft 365.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall debe tener conexión directa a Internet. Si AzureFirewallSubnet aprende una ruta predeterminada a la red local a través del protocolo de puerta de enlace fronteriza, debe configurar Azure Firewall en el modo de tunelización forzada. Con la característica de tunelización forzada, necesitará otro espacio de direcciones /26 para la subred de administración de Azure Firewall. Si se trata de una instancia de Azure Firewall existente que no se puede volver a configurar en el modo de tunelización forzada, cree una UDR con una ruta 0.0.0.0/0. Establezca el valor de NextHopType como Internet. Asócielo con AzureFirewallSubnet para mantener la conectividad a Internet.</t>
+          <t>Utilice etiquetas de servicio en las reglas de red para poder definir controles de acceso basados en nombres de servicio en lugar de direcciones IP específicas, lo que simplifica la administración de la seguridad. Microsoft administra y actualiza estas etiquetas automáticamente cuando cambian las direcciones IP. Este método garantiza que las reglas de firewall sigan siendo precisas y efectivas sin intervención manual.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>55277728-2747-486c-be69-3428291856a4</t>
+          <t>d64d477e-8277-4f70-9727-8c1db0cd649c</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Establezca la dirección IP pública en None para implementar un plano de datos totalmente privado al configurar Azure Firewall en el modo de tunelización forzada (no se aplica a Azure Virtual WAN).</t>
+          <t>Use etiquetas FQDN en las reglas de la aplicación para proporcionar acceso selectivo a servicios específicos de Microsoft. &lt;BR&gt;&lt;BR&gt; Puede usar una etiqueta FQDN en las reglas de la aplicación para permitir el tráfico de red de salida necesario a través del firewall para servicios específicos de Azure, como Microsoft 365, Windows 365 y Microsoft Intune.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Al implementar una nueva instancia de Azure Firewall, si habilita el modo de tunelización forzada, puede establecer la dirección IP pública en None para implementar un plano de datos totalmente privado. Sin embargo, el plano de administración sigue requiriendo una dirección IP pública solo con fines de administración. El tráfico interno de las redes virtuales y locales no usará esa dirección IP pública. Para más información sobre la tunelización forzada, consulte Tunelización forzada de Azure Firewall.</t>
+          <t>Use etiquetas FQDN en las reglas de aplicación de Azure Firewall para representar un grupo de FQDN asociados a servicios conocidos de Microsoft. Este método simplifica la administración de las reglas de seguridad de la red.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>7d9cd1f0-0f59-452e-be83-de6b49710ddc</t>
+          <t>f8f92e49-b7ed-40cc-ad7b-3431067dd488</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Cree reglas para las políticas de firewall en función de los criterios de acceso con privilegios mínimos.</t>
+          <t>Habilite la inteligencia sobre amenazas en Azure Firewall en modo de alerta y denegación.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permitir políticas granulares para cumplir con los requisitos de regiones específicas. Cada política puede contener diferentes conjuntos de reglas de DNAT, red y aplicación con prioridad, acción y orden de procesamiento específicos. Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos. En este artículo se explica cómo se procesan las reglas.</t>
+          <t>Utilice la inteligencia de amenazas para proporcionar protección en tiempo real contra las amenazas emergentes, lo que reduce el riesgo de ciberataques. Esta característica usa la fuente de inteligencia sobre amenazas de Microsoft para alertar y bloquear automáticamente el tráfico de direcciones IP, dominios y direcciones URL malintencionadas conocidas.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7600ea8-eb60-4eb1-9aee-c874efef69b7</t>
+          <t>ecce93c9-ffc9-498f-abdf-d29a618b8d1c</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Habilite IDPS en modo Alerta o Alerta y denegación.</t>
+          <t>Habilite el IDPS en modo Alerta o Alerta y denegación. Tenga en cuenta el impacto en el rendimiento de esta característica.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>IDPS es una de las características de seguridad más eficaces de Azure Firewall (Premium) y debe estar habilitada. En función de los requisitos de seguridad y de la aplicación, y teniendo en cuenta el impacto en el rendimiento (consulte la sección Costo a continuación), se pueden seleccionar los modos Alerta o Alerta y denegación.</t>
+          <t>Habilitar el filtrado de IDPS en Azure Firewall proporciona supervisión y análisis en tiempo real del tráfico de red para detectar y prevenir actividades malintencionadas. Esta función utiliza la detección basada en firmas para identificar rápidamente las amenazas conocidas y bloquearlas antes de que causen daño.  Para obtener más información, consulte Detección de abusos.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>d8fc2b4d-a183-4949-82ff-c6130a9d87dc</t>
+          <t>754d917c-b22f-4fe7-92b1-d0d88b5b1873</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Habilite la configuración de proxy de Azure Firewall (DNS).</t>
+          <t>Use una entidad de certificación (CA) empresarial interna para generar certificados cuando use la inspección TLS con Azure Firewall Premium. Utilice certificados autofirmados solo con fines de prueba y prueba de concepto (PoC).</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Al habilitar esta característica, los clientes de las redes virtuales apuntan a Azure Firewall como servidor DNS. Protegerá la infraestructura interna del DNS a la que no se accederá ni expondrá directamente. Azure Firewall también debe configurarse para usar DNS personalizado que se usará para reenviar consultas DNS.</t>
+          <t>Habilite la inspección de TLS para que Azure Firewall Premium finalice e inspeccione las conexiones TLS para detectar, alertar y mitigar la actividad malintencionada en HTTPS.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>9fa0a48c-c3cb-4fc2-a02b-1182a047e076</t>
+          <t>9e220953-da77-44f0-9e85-ccc7743e2d2a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Configure rutas definidas por el usuario (UDR) para forzar el tráfico a través de Azure Firewall.</t>
+          <t>Use Firewall Manager para crear y asociar un plan de Azure DDoS Protection con la red virtual del centro. Este enfoque no se aplica a Virtual WAN.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure las UDR para forzar el tráfico a través de Azure Firewall para la conectividad "Spoke-to-Spoke", "Spoke-to-Internet" y "Spoke-to-Hybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
+          <t>Configure un plan de protección contra DDoS de Azure para que pueda administrar de forma centralizada la protección contra DDoS junto con las directivas de firewall. Este enfoque agiliza la forma en que administra la seguridad de su red y simplifica la forma en que implementa y supervisa los procesos.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a3f23112-5986-4fd2-9d64-edfb0363c08c</t>
+          <t>fe3488cd-72a6-4672-b26b-64b1a0e9f625</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Si no es posible aplicar la UDR y solo se requiere el redireccionamiento del tráfico web, considere la posibilidad de usar Azure Firewall como proxy explícito</t>
+          <t>Detenga las implementaciones de Azure Firewall que no necesitan ejecutarse de forma continua. Es posible que tenga entornos de desarrollo o prueba que solo use durante el horario comercial. Para más información, consulte Desasignación y asignación de Azure Firewall.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Con la característica de proxy explícito habilitada en la ruta de acceso de salida, puede configurar una configuración de proxy en la aplicación web de envío (como un explorador web) con Azure Firewall configurado como proxy. Como resultado, el tráfico web llegará a la dirección IP privada del firewall y, por lo tanto, sale directamente del firewall sin usar una UDR. Esta característica también facilita el uso de múltiples firewalls sin modificar las rutas de red existentes.</t>
+          <t>Apague estas implementaciones durante las horas de menor actividad o cuando estén inactivas para reducir los gastos innecesarios, pero mantenga la seguridad y el rendimiento durante los momentos críticos.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f62b7e3d-b86d-4f84-888d-ec7f97b34e96</t>
+          <t>463b7549-f012-4554-a6df-4ea62350cc52</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad de software como servicio (SaaS) de terceros compatibles dentro de Firewall Manager si desea utilizar estas soluciones para proteger las conexiones salientes.</t>
+          <t>Revise periódicamente el tráfico que Azure Firewall procesa y busque optimizaciones de carga de trabajo de origen. El registro de flujos superiores, también conocido como registro de flujos pesados, muestra las conexiones principales que contribuyen al rendimiento más alto a través del firewall.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Puede utilizar sus ofertas de SECaaS de terceros, las mejores de su clase, para proteger el acceso a Internet de sus usuarios. Este escenario requiere Azure Virtual WAN con una puerta de enlace de VPN S2S en el centro, ya que usa un túnel IPSec para conectarse a la infraestructura del proveedor. Los proveedores de SECaaS pueden cobrar tarifas de licencia adicionales y limitar el rendimiento de las conexiones IPSec. Existen soluciones alternativas como ZScaler Cloud Connector y podrían ser más adecuadas.</t>
+          <t>Optimice las cargas de trabajo que generan la mayor cantidad de tráfico a través del firewall para reducir el volumen de tráfico, lo que disminuye la carga en el firewall y minimiza los costos de procesamiento de datos y ancho de banda.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>1f1a4239-f908-4fb5-aff5-7d716d9227a1</t>
+          <t>ccd04d1a-611b-4c77-aef7-96d1ac1470d1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Utilice el filtrado de nombres de dominio completos (FQDN) en las reglas de red.</t>
+          <t>Identifique y elimine las implementaciones de Azure Firewall no utilizadas. Analice las métricas de supervisión y las UDR asociadas a las subredes que apuntan a la IP privada del firewall. Tenga en cuenta también otras validaciones y documentación interna sobre el entorno y las implementaciones. Por ejemplo, analice las reglas clásicas de NAT, red y aplicación para Azure Firewall. Y ten en cuenta tu configuración. Por ejemplo, puede configurar la configuración del proxy DNS en Deshabilitado.  Para más información, consulte Supervisión de Azure Firewall.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Puede usar FQDN en función de la resolución de DNS en Azure Firewall y las directivas de firewall. Esta capacidad le permite filtrar el tráfico saliente con cualquier protocolo TCP/UDP (incluidos NTP, SSH, RDP y más). Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red. Para obtener información sobre cómo funciona, consulte Filtrado de FQDN de Azure Firewall en reglas de red.</t>
+          <t>Utilice este enfoque para detectar implementaciones rentables a lo largo del tiempo y eliminar los recursos no utilizados, lo que evita costos innecesarios.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>cac3a2cc-688b-42c3-bfb5-e2b55270b8a0</t>
+          <t>9ddcb977-4f4d-4c98-a7bc-daad82bf79fb</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use etiquetas de servicio en reglas de red para habilitar el acceso selectivo a servicios específicos de Microsoft.</t>
+          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager para optimizar los costos. Las políticas se facturan en función de las asociaciones de firewall. Una política con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para obtener más información, consulte Precios de Firewall Manager.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Una etiqueta de servicio representa un grupo de prefijos de dirección IP para ayudar a minimizar la complejidad de la creación de reglas de seguridad. Con las etiquetas de servicio en las reglas de red, es posible habilitar el acceso saliente a servicios específicos en Azure, Dynamics y Office 365 sin abrir amplios rangos de direcciones IP. Azure mantendrá automáticamente la asignación entre estas etiquetas y las direcciones IP subyacentes usadas por cada servicio. La lista de etiquetas de servicio disponibles para Azure Firewall se muestra aquí: Az Firewall Service Tags.</t>
+          <t>Utilice correctamente Firewall Manager y sus políticas para reducir los costos operativos, aumentar la eficiencia y reducir la sobrecarga de administración.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>8e718b0b-3ae5-4a85-9e5e-7f12ac48ace8</t>
+          <t>a42cec48-b5d7-467a-8296-4864c6e9b413</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Use etiquetas FQDN en las reglas de aplicación para habilitar el acceso selectivo a servicios específicos de Microsoft.</t>
+          <t>Revise todas las direcciones IP públicas de su configuración y desvincule y elimine las que no utilice. Evalúe el uso del puerto de traducción de direcciones de red de origen (SNAT) antes de eliminar cualquier dirección IP.  Para más información, consulte Supervisión de los registros y métricas de Azure Firewall y el uso de puertos SNAT.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Una etiqueta FQDN representa un grupo de nombres de dominio completos (FQDN) asociados a servicios conocidos de Microsoft. Puede usar una etiqueta FQDN en las reglas de la aplicación para permitir el tráfico de red saliente necesario a través del firewall para algunos servicios específicos de Azure, Office 365, Windows 365 e Intune.</t>
+          <t>Elimine las direcciones IP no utilizadas para reducir costos.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>66db2147-74f7-4b4a-af65-a946369ae551</t>
+          <t>407db414-2814-4803-9b80-be5ff2a97950</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager para crear y asociar un plan de protección contra DDoS con la red virtual del centro (no se aplica a Azure Virtual WAN).</t>
+          <t>Habilite los registros de diagnóstico para Azure Firewall. Use registros o libros de firewall para supervisar Azure Firewall. También puede usar los registros de actividad para auditar las operaciones en los recursos de Azure Firewall.  Utilice el formato de registros de firewall estructurado. Utilice únicamente el formato de registros de diagnóstico anterior si tiene una herramienta existente que lo requiera. No habilite ambos formatos de registro al mismo tiempo.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Un plan de protección contra DDoS proporciona funciones de mitigación mejoradas para defender su firewall de los ataques DDoS. Azure Firewall Manager es una herramienta integrada para crear la infraestructura de firewall y los planes de protección contra DDoS. Para más información, consulte Configuración de un plan de protección contra DDoS de Azure mediante Azure Firewall Manager.</t>
+          <t>Habilite los registros de diagnóstico para optimizar las herramientas y estrategias de supervisión de Azure Firewall.  Utilice registros de firewall estructurados para estructurar los datos de registro de modo que sean fáciles de buscar, filtrar y analizar. Las últimas herramientas de supervisión se basan en este tipo de registro, por lo que suele ser un requisito previo.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>0c87e550-0780-401e-9208-5464b378a8e7</t>
+          <t>fb2c3215-9576-49d1-a936-e302ef9049c2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Utilice una PKI empresarial para generar certificados para la inspección TLS.</t>
+          <t>Use el libro integrado de Azure Firewall.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Con Azure Firewall Premium, si se usa la característica de inspección TLS, se recomienda aprovechar una entidad de certificación (CA) empresarial interna para el entorno de producción. Los certificados autofirmados solo deben usarse con fines de prueba o PoC.</t>
+          <t>Use el libro de Azure Firewall para extraer información valiosa de los eventos de Azure Firewall, analizar las reglas de red y aplicaciones, y examinar las estadísticas sobre las actividades del firewall en direcciones URL, puertos y direcciones.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>821132d4-1ba9-4709-9eb3-5906871b1721</t>
+          <t>913ed2e5-c63c-4325-8578-965c5c3c4b79</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Revisión de la guía de configuración de Confianza cero para Azure Firewall y Application Gateway</t>
+          <t>Supervise los registros y las métricas de Azure Firewall y cree alertas para la capacidad de Azure Firewall. Cree alertas para supervisar el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Si sus requisitos de seguridad requieren la implementación de un enfoque Zero-Trust para las aplicaciones web (inspección y cifrado), se recomienda seguir esta guía. En este documento, se explicará cómo integrar Azure Firewall y Application Gateway, tanto en escenarios tradicionales de Hub &amp; Spoke como de Virtual WAN.</t>
+          <t>Configure alertas para eventos clave para notificar a los operadores antes de que surjan posibles problemas, ayudar a prevenir interrupciones e iniciar ajustes rápidos de capacidad.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>0ecf166e-e415-45bf-bece-87a32e76b096</t>
+          <t>79268d8a-5829-4fb3-a1c6-d7ee9c980cd4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Implemente la SKU de Azure Firewall adecuada.</t>
+          <t>Revise periódicamente el panel de análisis de políticas para identificar posibles problemas.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall se puede implementar en tres SKU diferentes: Básico, Estándar y Premium. Se recomienda Azure Firewall Premium para proteger aplicaciones muy confidenciales (como el procesamiento de pagos). Azure Firewall Standard se recomienda para los clientes que buscan un firewall de capa 3 a capa 7 y necesita escalado automático para controlar los períodos de tráfico máximo de hasta 30 Gbps. Azure Firewall Basic se recomienda para los clientes de pymes con necesidades de rendimiento de 250 Mbps. Si es necesario, es posible cambiar a una versión anterior o actualizarla entre Estándar y Premium, como se documenta aquí.   Para más información, consulte Elección de la SKU de Azure Firewall adecuada para satisfacer sus necesidades.</t>
+          <t>Use el análisis de directivas para analizar el impacto de las directivas de Azure Firewall. Identifique los posibles problemas en sus políticas, como el cumplimiento de los límites de las políticas, las reglas incorrectas y el uso incorrecto de grupos IP. Obtenga recomendaciones para mejorar su posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>fbcc2c4d-8026-46a9-8fe7-bdb04dbd1f20</t>
+          <t>63b266a4-285f-4fd4-a0fb-b6bb4c1ce75b</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Detenga las implementaciones de Azure Firewall que no necesitan ejecutarse las 24 horas del día, los 7 días de la semana.</t>
+          <t>Comprenda las consultas de KQL para que pueda usar los registros de Azure Firewall para analizar y solucionar problemas rápidamente. Azure Firewall proporciona consultas de ejemplo.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Es posible que tenga entornos de desarrollo o pruebas que solo se usen durante el horario comercial. Para más información, consulte Desasignación y asignación de Azure Firewall.</t>
+          <t>Use las consultas de KQL para identificar rápidamente los eventos dentro del firewall y comprobar qué regla se desencadena o qué regla permite o bloquea una solicitud.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>4bf5b742-3a86-40a3-abce-a7991e9a0e78</t>
+          <t>37cc2cc2-5700-4e4b-bb0b-86e6acb11092</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Comparta la misma instancia de Azure Firewall en varias cargas de trabajo y redes virtuales de Azure.</t>
+          <t>Use el panel de análisis de directivas para identificar formas de optimizar las directivas de Azure Firewall.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Puede usar una instancia central de Azure Firewall en la red virtual del centro de conectividad o en el centro de conectividad segura de Virtual WAN y compartir el mismo firewall entre muchas redes virtuales de radio que estén conectadas al mismo centro de conectividad desde la misma región. Asegúrese de que no haya tráfico inesperado entre regiones como parte de la topología en estrella tipo hub-andher.</t>
+          <t>Utilice el análisis de políticas para identificar posibles problemas en sus políticas, como el cumplimiento de los límites de las políticas, las reglas incorrectas y el uso incorrecto de grupos de IP. Obtenga recomendaciones para mejorar su posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>4468b60f-0f1d-4af5-98cd-b4f9fc3bd70f</t>
+          <t>e9cf81c7-6938-44e1-83fe-0c16af8214fd</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Revise periódicamente el tráfico procesado por Azure Firewall y busque optimizaciones de carga de trabajo de origen</t>
+          <t>Coloque las reglas de uso frecuente al principio de un grupo para optimizar la latencia de las directivas de Azure Firewall que tienen grandes conjuntos de reglas.  Para más información, consulte Uso de directivas de Azure Firewall para procesar reglas.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>El registro de Top Flows (conocido en el sector como Fat Flows) muestra las principales conexiones que contribuyen al mayor rendimiento a través del firewall. Se recomienda revisar periódicamente el tráfico procesado por Azure Firewall y buscar posibles optimizaciones para reducir la cantidad de tráfico que atraviesa el firewall.</t>
+          <t>Coloque las reglas de uso frecuente en un lugar destacado de un conjunto de reglas para optimizar la latencia de procesamiento. Azure Firewall procesa las reglas en función del tipo de regla, la herencia, la prioridad del grupo de recopilación de reglas y la prioridad de la recopilación de reglas. Azure Firewall procesa primero los grupos de recopilación de reglas de alta prioridad. Dentro de un grupo de recopilación de reglas, Azure Firewall procesa primero las colecciones de reglas que tienen la prioridad más alta.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1927,7 +1927,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>3ec205f3-5201-4a2e-b82b-1c77c9ee139c</t>
+          <t>4413e944-e222-419c-bc01-54f518dace78</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Revise las instancias de Azure Firewall infrautilizadas. Identifique y elimine las implementaciones de Azure Firewall no utilizadas.</t>
+          <t>Utilice grupos de direcciones IP para resumir los intervalos de direcciones IP y evitar superar el límite de reglas de red de origen o destino único. Azure Firewall trata el grupo de direcciones IP como una única dirección al crear reglas de red.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Para identificar las implementaciones de Azure Firewall sin usar, empiece por analizar las métricas de supervisión y las unidades definidas al usuario asociadas a las subredes que apuntan a la dirección IP privada del firewall. Combine esa información con otras validaciones, por ejemplo, si la instancia de Azure Firewall tiene reglas (clásicas) para NAT, red y aplicación, o incluso si la configuración de Proxy DNS está configurada en Deshabilitado, y con documentación interna sobre el entorno y las implementaciones. Puede detectar implementaciones que sean rentables a lo largo del tiempo.  Para obtener más información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall y uso de puertos SNAT.</t>
+          <t>Este enfoque aumenta efectivamente el número de direcciones IP que puede cubrir sin exceder el límite. Para cada regla, Azure multiplica los puertos por direcciones IP. Por lo tanto, si una regla tiene cuatro intervalos de direcciones IP y cinco puertos, consume 20 reglas de red.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>514f4dbe-5294-44e1-95c5-923a199ff687</t>
+          <t>6acef044-ef2f-47b0-8463-5de890902930</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager y sus directivas para reducir los costos operativos, aumentar la eficiencia y reducir la sobrecarga de administración.</t>
+          <t>Use las categorías web de Azure Firewall para permitir o denegar el acceso saliente de forma masiva, en lugar de crear y mantener explícitamente una larga lista de sitios públicos de Internet.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager. Las políticas se facturan en función de las asociaciones de firewall. Una póliza con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para más información, consulte Precios: Azure Firewall Manager.</t>
+          <t>Esta función categoriza dinámicamente el contenido web y permite la creación de reglas de aplicación compactas, lo que reduce la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>90f29560-d536-46bf-a719-f0f95f89105e</t>
+          <t>0a8a6e9c-57e9-40bd-8345-8b5abbcfa504</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2008,12 +2008,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Elimine las direcciones IP públicas no utilizadas.</t>
+          <t>Evalúe el impacto en el rendimiento de IDPS en modo de alerta y denegación. Para más información, consulte Rendimiento de Azure Firewall.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Valida si todas las direcciones IP públicas asociadas están en uso. Si no están en uso, desconsocie y elimínelos. Evalúe la utilización del puerto SNAT antes de eliminar cualquier dirección IP. Solo usarás el número de direcciones IP públicas que necesite tu firewall. Para más información, consulte Supervisión de los registros y métricas de Azure Firewall y el uso de puertos SNAT.</t>
+          <t>Habilite IDPS en modo de alerta y denegación para detectar y prevenir actividades maliciosas en la red. Esta característica podría introducir una penalización del rendimiento. Comprenda el efecto en su carga de trabajo para que pueda planificar en consecuencia.</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2029,7 +2029,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e81c61b3-0085-4029-82e3-d55513288f87</t>
+          <t>a281c1d2-e2da-458f-ad57-d67d19b8377e</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Revise los requisitos de registro.</t>
+          <t>Configure implementaciones de Azure Firewall con un mínimo de cinco direcciones IP públicas para las implementaciones que son susceptibles al agotamiento del puerto SNAT.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall tiene la capacidad de registrar de forma exhaustiva los metadatos de todo el tráfico que ve, en áreas de trabajo de Log Analytics, almacenamiento o soluciones de terceros a través de Event Hubs. Sin embargo, todas las soluciones de registro incurren en costos de procesamiento y almacenamiento de datos. En volúmenes muy grandes, estos costos pueden ser significativos, se debe considerar un enfoque rentable y una alternativa a Log Analytics y estimar los costos. Considere si es necesario registrar los metadatos de tráfico para todas las categorías de registro y modificarlos en Configuración de diagnóstico si es necesario.</t>
+          <t>Azure Firewall admite 2.496 puertos para cada dirección IP pública que usa cada instancia de Azure Virtual Machine Scale Sets de back-end. Esta configuración aumenta cinco veces los puertos SNAT disponibles.  De forma predeterminada, Azure Firewall implementa dos instancias de Virtual Machine Scale Sets que admiten 4.992 puertos para cada IP de destino de flujo, puerto de destino y protocolo TCP o UDP. El firewall se escala hasta un máximo de 20 instancias.</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2063,7 +2063,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a27d979a-c88c-4ce0-9310-9a69eba3460d</t>
+          <t>ffa8eeee-ff51-44ca-a416-275bcf54be52</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2074,32 +2074,15 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="n"/>
       <c r="B38" s="21" t="n"/>
-      <c r="C38" s="21" t="inlineStr">
-        <is>
-          <t>No use Azure Firewall para el control del tráfico dentro de la red virtual.</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall se debe usar para controlar el tráfico entre redes virtuales, entre redes virtuales y redes locales, el tráfico saliente a Internet y el tráfico entrante que no es HTTP/s. Para el control del tráfico dentro de la red virtual, se recomienda usar grupos de seguridad de red.</t>
-        </is>
-      </c>
+      <c r="C38" s="21" t="n"/>
+      <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="n"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
-      <c r="L38" s="25" t="inlineStr">
-        <is>
-          <t>bce7644e-fefe-4d43-94ea-37af4d8743f9</t>
-        </is>
-      </c>
+      <c r="L38" s="25" t="n"/>
       <c r="M38" s="25" t="n"/>
       <c r="N38" s="25" t="n"/>
       <c r="O38" s="25" t="n"/>
@@ -2108,32 +2091,15 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="n"/>
       <c r="B39" s="21" t="n"/>
-      <c r="C39" s="21" t="inlineStr">
-        <is>
-          <t>Mantenga copias de seguridad periódicas de los artefactos de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="inlineStr">
-        <is>
-          <t>Si se usa el enfoque de infraestructura como código (IaC) para mantener Azure Firewall y todas las dependencias, la copia de seguridad y el control de versiones de las directivas de Azure Firewall ya deben estar en su lugar. De lo contrario, se puede implementar un mecanismo complementario basado en una aplicación lógica externa para automatizar y proporcionar una solución eficaz.</t>
-        </is>
-      </c>
+      <c r="C39" s="21" t="n"/>
+      <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="n"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="n"/>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
-      <c r="L39" s="25" t="inlineStr">
-        <is>
-          <t>8b0afffb-17aa-4839-b93f-c01d990ad7c6</t>
-        </is>
-      </c>
+      <c r="L39" s="25" t="n"/>
       <c r="M39" s="25" t="n"/>
       <c r="N39" s="25" t="n"/>
       <c r="O39" s="25" t="n"/>
@@ -2142,32 +2108,15 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="n"/>
       <c r="B40" s="21" t="n"/>
-      <c r="C40" s="21" t="inlineStr">
-        <is>
-          <t>Habilite los registros de diagnóstico para Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="inlineStr">
-        <is>
-          <t>Los registros de diagnóstico son un componente clave para muchas herramientas y estrategias de supervisión de Azure Firewall y deben estar habilitados. Puede supervisar Azure Firewall mediante registros de firewall o libros. También puede usar registros de actividad para auditar operaciones en los recursos de Azure Firewall.</t>
-        </is>
-      </c>
+      <c r="C40" s="21" t="n"/>
+      <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="n"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
-      <c r="L40" s="25" t="inlineStr">
-        <is>
-          <t>6d52b11a-0034-4824-84c4-7383182dc4df</t>
-        </is>
-      </c>
+      <c r="L40" s="25" t="n"/>
       <c r="M40" s="25" t="n"/>
       <c r="N40" s="25" t="n"/>
       <c r="O40" s="25" t="n"/>
@@ -2176,32 +2125,15 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="n"/>
       <c r="B41" s="21" t="n"/>
-      <c r="C41" s="21" t="inlineStr">
-        <is>
-          <t>Utilice el formato de registros de firewall estructurados.</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>Los registros de firewall estructurados son un tipo de datos de registro que se organizan en un nuevo formato específico. Utilizan un esquema predefinido para estructurar los datos de registro de una manera que facilite la búsqueda, el filtrado y el análisis. Las últimas herramientas de monitoreo se basan en este tipo de registros, por lo que a menudo es un requisito previo. Utilice el formato de registros de diagnóstico anterior solo si hay una herramienta existente con un requisito previo para ello. No habilite ambos formatos de registro al mismo tiempo.</t>
-        </is>
-      </c>
+      <c r="C41" s="21" t="n"/>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="n"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="n"/>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
-      <c r="L41" s="25" t="inlineStr">
-        <is>
-          <t>99a0621d-2643-4e46-afb0-dd3e5111dedd</t>
-        </is>
-      </c>
+      <c r="L41" s="25" t="n"/>
       <c r="M41" s="25" t="n"/>
       <c r="N41" s="25" t="n"/>
       <c r="O41" s="25" t="n"/>
@@ -2210,32 +2142,15 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="n"/>
       <c r="B42" s="21" t="n"/>
-      <c r="C42" s="21" t="inlineStr">
-        <is>
-          <t>Use el libro de supervisión de Azure Firewall integrado.</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>La experiencia del portal de Azure Firewall ahora incluye un nuevo libro en la interfaz de usuario de la sección Supervisión, por lo que ya no es necesaria una instalación independiente. Con el libro de Azure Firewall, puede extraer información valiosa de los eventos de Azure Firewall, profundizar en las reglas de red y aplicaciones y examinar estadísticas sobre las actividades del firewall en direcciones URL, puertos y direcciones.</t>
-        </is>
-      </c>
+      <c r="C42" s="21" t="n"/>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="n"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="n"/>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
-      <c r="L42" s="25" t="inlineStr">
-        <is>
-          <t>8c18d9ea-2440-4125-a0cb-c1cf35c0be70</t>
-        </is>
-      </c>
+      <c r="L42" s="25" t="n"/>
       <c r="M42" s="25" t="n"/>
       <c r="N42" s="25" t="n"/>
       <c r="O42" s="25" t="n"/>
@@ -2244,32 +2159,15 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="n"/>
       <c r="B43" s="21" t="n"/>
-      <c r="C43" s="21" t="inlineStr">
-        <is>
-          <t>Supervise las métricas clave y cree alertas para los indicadores de la utilización de la capacidad de Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="inlineStr">
-        <is>
-          <t>Las alertas deben crearse para supervisar al menos el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas del sondeo de latencia de AZFW. Para obtener información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall.</t>
-        </is>
-      </c>
+      <c r="C43" s="21" t="n"/>
+      <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="n"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
-      <c r="L43" s="25" t="inlineStr">
-        <is>
-          <t>05877204-1759-4b71-8938-4766b1b24fa7</t>
-        </is>
-      </c>
+      <c r="L43" s="25" t="n"/>
       <c r="M43" s="25" t="n"/>
       <c r="N43" s="25" t="n"/>
       <c r="O43" s="25" t="n"/>
@@ -2278,32 +2176,15 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="n"/>
       <c r="B44" s="21" t="n"/>
-      <c r="C44" s="21" t="inlineStr">
-        <is>
-          <t>Configure la integración de Azure Firewall con Microsoft Defender for Cloud y Microsoft Sentinel.</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="inlineStr">
-        <is>
-          <t>Si estas herramientas están disponibles en el entorno, se recomienda aprovechar la integración con las soluciones de Microsoft Defender for Cloud y Microsoft Sentinel. Con la integración de Microsoft Defender for Cloud, puede visualizar el estado general de la infraestructura de red y la seguridad de la red en un solo lugar, incluida la seguridad de red de Azure en todas las redes virtuales y centros virtuales repartidos en diferentes regiones de Azure. La integración con Microsoft Sentinel proporciona capacidades de detección y prevención de amenazas.</t>
-        </is>
-      </c>
+      <c r="C44" s="21" t="n"/>
+      <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="n"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="n"/>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
-      <c r="L44" s="25" t="inlineStr">
-        <is>
-          <t>0dd715ab-c76e-49b9-9616-ccb36ddb293e</t>
-        </is>
-      </c>
+      <c r="L44" s="25" t="n"/>
       <c r="M44" s="25" t="n"/>
       <c r="N44" s="25" t="n"/>
       <c r="O44" s="25" t="n"/>
@@ -2312,31 +2193,14 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="n"/>
       <c r="B45" s="21" t="n"/>
-      <c r="C45" s="21" t="inlineStr">
-        <is>
-          <t>Revise periódicamente el panel de análisis de políticas para identificar posibles problemas.</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="inlineStr">
-        <is>
-          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de baja utilización, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
-        </is>
-      </c>
+      <c r="C45" s="21" t="n"/>
+      <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="n"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
-      <c r="L45" s="25" t="inlineStr">
-        <is>
-          <t>9e1b460f-0d41-40a1-9da7-89cda32f7190</t>
-        </is>
-      </c>
+      <c r="L45" s="25" t="n"/>
       <c r="M45" s="25" t="n"/>
       <c r="N45" s="25" t="n"/>
       <c r="O45" s="25" t="n"/>
@@ -2345,32 +2209,15 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="n"/>
       <c r="B46" s="21" t="n"/>
-      <c r="C46" s="21" t="inlineStr">
-        <is>
-          <t>Familiarícese con las consultas KQL (lenguaje de consulta Kusto) para permitir un análisis rápido y la solución de problemas mediante los registros de Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="inlineStr">
-        <is>
-          <t>Se proporcionan consultas de ejemplo para Azure Firewall. Estos le permitirán identificar rápidamente lo que está sucediendo dentro de su firewall y verificar qué regla se activó o qué regla permite/bloquea una solicitud.</t>
-        </is>
-      </c>
+      <c r="C46" s="21" t="n"/>
+      <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="n"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="n"/>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="25" t="inlineStr">
-        <is>
-          <t>8f1b00a0-2ba3-4dff-b808-072bbd316a88</t>
-        </is>
-      </c>
+      <c r="L46" s="25" t="n"/>
       <c r="M46" s="25" t="n"/>
       <c r="N46" s="25" t="n"/>
       <c r="O46" s="25" t="n"/>
@@ -2379,32 +2226,15 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="n"/>
       <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="inlineStr">
-        <is>
-          <t>Utilice el panel de análisis de políticas para identificar posibles optimizaciones para las políticas de firewall.</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="inlineStr">
-        <is>
-          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de baja utilización, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
-        </is>
-      </c>
+      <c r="C47" s="21" t="n"/>
+      <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="n"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="inlineStr">
-        <is>
-          <t>f3a64299-022d-492e-a095-72965cbb79b8</t>
-        </is>
-      </c>
+      <c r="L47" s="25" t="n"/>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
@@ -2413,31 +2243,14 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="n"/>
       <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="inlineStr">
-        <is>
-          <t>Considere la posibilidad de utilizar categorías web para permitir o denegar el acceso saliente de forma masiva.</t>
-        </is>
-      </c>
-      <c r="D48" s="21" t="inlineStr">
-        <is>
-          <t>En lugar de crear y mantener explícitamente una larga lista de sitios públicos de Internet, considere el uso de las categorías web de Azure Firewall. Esta función categorizará dinámicamente el contenido web y permitirá la creación de reglas de aplicación compactas.</t>
-        </is>
-      </c>
+      <c r="C48" s="21" t="n"/>
+      <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="n"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="inlineStr">
-        <is>
-          <t>53e42e9b-6d25-4116-87ca-6c97252e1cd6</t>
-        </is>
-      </c>
+      <c r="L48" s="25" t="n"/>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
@@ -2446,31 +2259,14 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="n"/>
       <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="inlineStr">
-        <is>
-          <t>Evalúe el impacto en el rendimiento de IDPS en modo de alerta y denegación.</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>Si es necesario que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento tal y como se documenta en Rendimiento del firewall.</t>
-        </is>
-      </c>
+      <c r="C49" s="21" t="n"/>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="n"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="inlineStr">
-        <is>
-          <t>4afedb20-a63a-4c17-907d-d8afc5cd1b43</t>
-        </is>
-      </c>
+      <c r="L49" s="25" t="n"/>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
@@ -2479,32 +2275,15 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="n"/>
       <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>Evalúe el posible problema de agotamiento del puerto SNAT.</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="inlineStr">
-        <is>
-          <t>Actualmente, Azure Firewall admite 2496 puertos por dirección IP pública por instancia de conjunto de escalado de máquinas virtuales de back-end. De forma predeterminada, hay dos instancias de Virtual Machine Scale Set. Por lo tanto, hay 4992 puertos por IP de destino de flujo, puerto de destino y protocolo (TCP o UDP). El firewall se escala hasta un máximo de 20 instancias. Puede evitar los límites configurando implementaciones de Azure Firewall con un mínimo de cinco direcciones IP públicas para las implementaciones susceptibles al agotamiento de SNAT.</t>
-        </is>
-      </c>
+      <c r="C50" s="21" t="n"/>
+      <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="n"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="inlineStr">
-        <is>
-          <t>cdb16c9c-fe4e-41d6-bc0c-8519a606d37b</t>
-        </is>
-      </c>
+      <c r="L50" s="25" t="n"/>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
@@ -2513,32 +2292,15 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="n"/>
       <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="inlineStr">
-        <is>
-          <t>Prepare correctamente Azure Firewall antes de cualquier prueba de rendimiento.</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>Cree tráfico inicial que no forme parte de las pruebas de carga 20 minutos antes de la prueba. Utilice la configuración de diagnóstico para capturar eventos de escalado vertical y reducido. Puede usar el servicio Azure Load Testing para generar el tráfico inicial. Permite que la instancia de Azure Firewall escale verticalmente sus instancias al máximo.</t>
-        </is>
-      </c>
+      <c r="C51" s="21" t="n"/>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="n"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="inlineStr">
-        <is>
-          <t>1859fa28-775d-433f-b189-6b250e51b441</t>
-        </is>
-      </c>
+      <c r="L51" s="25" t="n"/>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -2547,32 +2309,15 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="n"/>
       <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="inlineStr">
-        <is>
-          <t>Configure una subred de Azure Firewall (AzureFirewallSubnet) con un espacio de direcciones /26.</t>
-        </is>
-      </c>
-      <c r="D52" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall es una implementación dedicada en la red virtual. Dentro de la red virtual, se requiere una subred dedicada para la instancia de Azure Firewall. Azure Firewall aprovisiona más capacidad a medida que se escala. Un espacio de direcciones /26 para sus subredes garantiza que el firewall tenga suficientes direcciones IP disponibles para acomodar el escalado. Azure Firewall no necesita una subred mayor que /26. El nombre de la subred de Azure Firewall debe ser AzureFirewallSubnet.</t>
-        </is>
-      </c>
+      <c r="C52" s="21" t="n"/>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="n"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="inlineStr">
-        <is>
-          <t>272b1122-494d-4baa-a328-928a89ebb0ad</t>
-        </is>
-      </c>
+      <c r="L52" s="25" t="n"/>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
@@ -2581,31 +2326,14 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="n"/>
       <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>No habilite el registro avanzado si no es necesario</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="inlineStr">
-        <is>
-          <t>Azure Firewall proporciona algunas funcionalidades de registro avanzadas que pueden resultar costosas de mantener siempre activas. En su lugar, deben usarse solo con fines de solución de problemas y tener una duración limitada, y luego deshabilitarse cuando ya no sean necesarios. Por ejemplo, los flujos principales y los registros de seguimiento de flujo son costosos, lo que puede provocar un uso excesivo de CPU y almacenamiento en la infraestructura de Azure Firewall.</t>
-        </is>
-      </c>
+      <c r="C53" s="21" t="n"/>
+      <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="n"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="inlineStr">
-        <is>
-          <t>2b20c2ea-e6fd-4570-b86f-b20bfb695c6f</t>
-        </is>
-      </c>
+      <c r="L53" s="25" t="n"/>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
@@ -6589,7 +6317,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F38" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/azurefirewall_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurefirewall_sg_checklist.es.xlsx
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Supervise las métricas de Azure Firewall en un área de trabajo de Log Analytics. Supervise de cerca las métricas que indican el estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, el uso del puerto SNAT y las métricas de sondeo de latencia de AZFW.  Use Azure Service Health para supervisar el estado de Azure Firewall.</t>
+          <t>Supervise las métricas de Azure Firewall en un área de trabajo de Log Analytics. Supervise de cerca las métricas que indican el estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW.  Use Azure Service Health para supervisar el estado de Azure Firewall.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Supervise las métricas de recursos y el estado del servicio para poder detectar cuándo se degrada un estado del servicio y tomar medidas proactivas para evitar errores.</t>
+          <t>Supervise las métricas de recursos y el estado del servicio para poder detectar cuándo se degrada un estado de servicio y tomar medidas proactivas para evitar errores.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall en modo de tunelización forzada si necesita enrutar todo el tráfico enlazado a Internet a un próximo salto designado en lugar de directamente a Internet. Esta recomendación no se aplica a Virtual WAN. &lt;BR&gt;&lt;BR&gt; Azure Firewall debe tener conexión directa a Internet. Si AzureFirewallSubnet aprende una ruta predeterminada a la red local a través del protocolo de puerta de enlace fronteriza, debe configurar Azure Firewall en modo de tunelización forzada. Puede usar la característica de tunelización forzada para agregar otro espacio de direcciones /26 para la subred de administración de Azure Firewall. Asigne a la subred el nombre AzureFirewallManagementSubnet. Si tiene una instancia de Azure Firewall existente que no puede volver a configurar en el modo de tunelización forzada, cree una UDR con una ruta 0.0.0.0/0. Establezca el valor de NextHopType como Internet. Para mantener la conectividad a Internet, asocie la UDR con AzureFirewallSubnet.  Establezca la dirección IP pública en None para implementar un plano de datos totalmente privado al configurar Azure Firewall en modo de tunelización forzada. Sin embargo, el plano de administración sigue requiriendo una dirección IP pública solo con fines de administración. El tráfico interno de las redes virtuales y locales no usa esa dirección IP pública.</t>
+          <t>Configure Azure Firewall en modo de tunelización forzada si necesita enrutar todo el tráfico enlazado a Internet a un próximo salto designado en lugar de directamente a Internet. Esta recomendación no se aplica a Virtual WAN. &lt;BR&gt;&lt;BR&gt; Azure Firewall debe tener conectividad directa a Internet. Si AzureFirewallSubnet aprende una ruta predeterminada a la red local a través del protocolo de puerta de enlace fronteriza, debe configurar Azure Firewall en modo de tunelización forzada. Puede usar la característica de tunelización forzada para agregar otro espacio de direcciones /26 para la subred de administración de Azure Firewall. Asigne a la subred el nombre AzureFirewallManagementSubnet. Si tiene una instancia de Azure Firewall existente que no puede volver a configurar en el modo de tunelización forzada, cree una UDR con una ruta 0.0.0.0/0. Establezca el valor de NextHopType como Internet. Para mantener la conectividad a Internet, asocie la UDR con AzureFirewallSubnet.  Establezca la dirección IP pública en None para implementar un plano de datos totalmente privado al configurar Azure Firewall en modo de tunelización forzada. Sin embargo, el plano de administración sigue requiriendo una dirección IP pública solo con fines de administración. El tráfico interno de las redes virtuales y locales no usa esa dirección IP pública.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
@@ -1163,7 +1163,7 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Cree reglas para políticas de firewall en una estructura jerárquica para superponer una política base central. Para más información, consulte Uso de directivas de Azure Firewall para procesar reglas. &lt;BR&gt;&lt;BR&gt; Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos</t>
+          <t>Cree reglas para políticas de firewall en una estructura jerárquica para superponer una política base central. Para más información, consulte Uso de directivas de Azure Firewall para procesar reglas. &lt;BR&gt;&lt;BR&gt; Cree sus reglas basadas en el principio de Confianza cero de acceso con privilegios mínimos</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
@@ -1231,7 +1231,7 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Habilite la configuración de proxy DNS de Azure Firewall. &lt;BR&gt;&lt;BR&gt; Configure también Azure Firewall para usar DNS personalizado para reenviar consultas DNS.</t>
+          <t>Habilite la configuración del proxy DNS de Azure Firewall. &lt;BR&gt;&lt;BR&gt; Configure también Azure Firewall para que use DNS personalizado para reenviar consultas DNS.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
@@ -1265,7 +1265,7 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Configure las UDR para forzar el tráfico a través de Azure Firewall en una arquitectura tradicional de concentrador y radio para la conectividad de radio a radio, de radio a Internet y de radio a híbrido. &lt;BR&gt;&lt;BR&gt; En Virtual WAN, configure la intención de enrutamiento y las directivas para redirigir el tráfico privado o el tráfico de Internet a través de la instancia de Azure Firewall integrada en el centro. &lt;BR&gt;&lt;BR&gt; Si no puede aplicar una UDR y solo necesita el redireccionamiento del tráfico web, use Azure Firewall como proxy explícito en la ruta de acceso de salida. Puede configurar una opción de proxy en la aplicación de envío, como un explorador web, al configurar Azure Firewall como proxy.</t>
+          <t>Configure las UDR para forzar el tráfico a través de Azure Firewall en una arquitectura tradicional de centro y radio para la conectividad de radio a radio, de radio a Internet y de radio a híbrido. &lt;BR&gt;&lt;BR&gt; En Virtual WAN, configure la intención de enrutamiento y las directivas para redirigir el tráfico privado o el tráfico de Internet a través de la instancia de Azure Firewall integrada en el centro. &lt;BR&gt;&lt;BR&gt; Si no puede aplicar una UDR y solo necesita el redireccionamiento del tráfico web, use Azure Firewall como proxy explícito en la ruta de salida. Puede configurar una opción de proxy en la aplicación de envío, como un explorador web, al configurar Azure Firewall como proxy.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use el filtrado de FQDN en las reglas de red. Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red.</t>
+          <t>Utilice el filtrado de FQDN en las reglas de red. Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN en las reglas de red de Azure Firewall para que los administradores puedan administrar nombres de dominio en lugar de varias direcciones IP, lo que simplifica la administración. Esta resolución dinámica garantiza que las reglas de firewall se actualicen automáticamente cuando cambien las direcciones IP de los dominios.</t>
+          <t>Use FQDN en las reglas de red de Azure Firewall para que los administradores puedan administrar nombres de dominio en lugar de varias direcciones IP, lo que simplifica la administración. Esta resolución dinámica garantiza que las reglas de firewall se actualicen automáticamente cuando cambien las direcciones IP de dominio.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1367,7 +1367,7 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use etiquetas FQDN en las reglas de la aplicación para proporcionar acceso selectivo a servicios específicos de Microsoft. &lt;BR&gt;&lt;BR&gt; Puede usar una etiqueta FQDN en las reglas de la aplicación para permitir el tráfico de red de salida necesario a través del firewall para servicios específicos de Azure, como Microsoft 365, Windows 365 y Microsoft Intune.</t>
+          <t>Use etiquetas FQDN en las reglas de la aplicación para proporcionar acceso selectivo a servicios específicos de Microsoft. &lt;BR&gt;&lt;BR&gt; Puede usar una etiqueta FQDN en las reglas de la aplicación para permitir el tráfico de red saliente necesario a través del firewall para servicios específicos de Azure, como Microsoft 365, Windows 365 y Microsoft Intune.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1503,7 +1503,7 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Use Firewall Manager para crear y asociar un plan de Azure DDoS Protection con la red virtual del centro. Este enfoque no se aplica a Virtual WAN.</t>
+          <t>Use Firewall Manager para crear y asociar un plan de Azure DDoS Protection con la red virtual del centro de conectividad. Este enfoque no se aplica a Virtual WAN.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
@@ -1537,7 +1537,7 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Detenga las implementaciones de Azure Firewall que no necesitan ejecutarse de forma continua. Es posible que tenga entornos de desarrollo o prueba que solo use durante el horario comercial. Para más información, consulte Desasignación y asignación de Azure Firewall.</t>
+          <t>Detenga las implementaciones de Azure Firewall que no necesitan ejecutarse continuamente. Es posible que tenga entornos de desarrollo o pruebas que solo use durante el horario comercial. Para más información, consulte Desasignación y asignación de Azure Firewall.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
@@ -1571,7 +1571,7 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Revise periódicamente el tráfico que Azure Firewall procesa y busque optimizaciones de carga de trabajo de origen. El registro de flujos superiores, también conocido como registro de flujos pesados, muestra las conexiones principales que contribuyen al rendimiento más alto a través del firewall.</t>
+          <t>Revise periódicamente el tráfico que Azure Firewall procesa y encuentre las optimizaciones de la carga de trabajo de origen. El registro de flujos principales, también conocido como registro de flujos pesados, muestra las conexiones principales que contribuyen al rendimiento más alto a través del firewall.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
@@ -1605,7 +1605,7 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Identifique y elimine las implementaciones de Azure Firewall no utilizadas. Analice las métricas de supervisión y las UDR asociadas a las subredes que apuntan a la IP privada del firewall. Tenga en cuenta también otras validaciones y documentación interna sobre el entorno y las implementaciones. Por ejemplo, analice las reglas clásicas de NAT, red y aplicación para Azure Firewall. Y ten en cuenta tu configuración. Por ejemplo, puede configurar la configuración del proxy DNS en Deshabilitado.  Para más información, consulte Supervisión de Azure Firewall.</t>
+          <t>Identifique y elimine las implementaciones de Azure Firewall no utilizadas. Analice las métricas de supervisión y las UDR asociadas a las subredes que apuntan a la IP privada del firewall. Tenga en cuenta también otras validaciones y documentación interna sobre el entorno y las implementaciones. Por ejemplo, analice las reglas clásicas de NAT, red y aplicación para Azure Firewall. Y ten en cuenta tu configuración. Por ejemplo, puede configurar la opción de proxy DNS en Deshabilitado.  Para más información, consulte Supervisión de Azure Firewall.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -1639,7 +1639,7 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager para optimizar los costos. Las políticas se facturan en función de las asociaciones de firewall. Una política con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para obtener más información, consulte Precios de Firewall Manager.</t>
+          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager para optimizar el costo. Las políticas se facturan en función de las asociaciones de firewall. Una política con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para obtener más información, consulte Precios de Firewall Manager.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
@@ -1673,7 +1673,7 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Revise todas las direcciones IP públicas de su configuración y desvincule y elimine las que no utilice. Evalúe el uso del puerto de traducción de direcciones de red de origen (SNAT) antes de eliminar cualquier dirección IP.  Para más información, consulte Supervisión de los registros y métricas de Azure Firewall y el uso de puertos SNAT.</t>
+          <t>Revise todas las direcciones IP públicas de su configuración y desvincule y elimine las que no use. Evalúe el uso del puerto de traducción de direcciones de red de origen (SNAT) antes de eliminar cualquier dirección IP.  Para más información, consulte Supervisión de los registros y las métricas de Azure Firewall y el uso de puertos SNAT.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de diagnóstico para Azure Firewall. Use registros o libros de firewall para supervisar Azure Firewall. También puede usar los registros de actividad para auditar las operaciones en los recursos de Azure Firewall.  Utilice el formato de registros de firewall estructurado. Utilice únicamente el formato de registros de diagnóstico anterior si tiene una herramienta existente que lo requiera. No habilite ambos formatos de registro al mismo tiempo.</t>
+          <t>Habilite los registros de diagnóstico para Azure Firewall. Use registros o libros de firewall para supervisar Azure Firewall. También puede usar registros de actividad para auditar las operaciones en los recursos de Azure Firewall.  Utilice el formato de registros de firewall estructurado. Utilice únicamente el formato de registros de diagnóstico anterior si tiene una herramienta existente que lo requiera. No habilite ambos formatos de registro al mismo tiempo.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de diagnóstico para optimizar las herramientas y estrategias de supervisión de Azure Firewall.  Utilice registros de firewall estructurados para estructurar los datos de registro de modo que sean fáciles de buscar, filtrar y analizar. Las últimas herramientas de supervisión se basan en este tipo de registro, por lo que suele ser un requisito previo.</t>
+          <t>Habilite los registros de diagnóstico para optimizar las herramientas y estrategias de supervisión de Azure Firewall.  Utilice los registros de firewall estructurados para estructurar los datos de registro de modo que sean fáciles de buscar, filtrar y analizar. Las herramientas de supervisión más recientes se basan en este tipo de registro, por lo que suele ser un requisito previo.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Configure alertas para eventos clave para notificar a los operadores antes de que surjan posibles problemas, ayudar a prevenir interrupciones e iniciar ajustes rápidos de capacidad.</t>
+          <t>Configure alertas de eventos clave para notificar a los operadores antes de que surjan posibles problemas, ayudar a prevenir interrupciones e iniciar ajustes rápidos de capacidad.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Use el análisis de directivas para analizar el impacto de las directivas de Azure Firewall. Identifique los posibles problemas en sus políticas, como el cumplimiento de los límites de las políticas, las reglas incorrectas y el uso incorrecto de grupos IP. Obtenga recomendaciones para mejorar su posición de seguridad y el rendimiento del procesamiento de reglas.</t>
+          <t>Use el análisis de directivas para analizar el impacto de las directivas de Azure Firewall. Identifique los posibles problemas de las directivas, como el cumplimiento de los límites de las directivas, las reglas incorrectas y el uso incorrecto de grupos de IP. Obtenga recomendaciones para mejorar su posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Use las consultas de KQL para identificar rápidamente los eventos dentro del firewall y comprobar qué regla se desencadena o qué regla permite o bloquea una solicitud.</t>
+          <t>Utilice las consultas de KQL para identificar rápidamente los eventos dentro del firewall y comprobar qué regla se ha activado o qué regla permite o bloquea una solicitud.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Utilice el análisis de políticas para identificar posibles problemas en sus políticas, como el cumplimiento de los límites de las políticas, las reglas incorrectas y el uso incorrecto de grupos de IP. Obtenga recomendaciones para mejorar su posición de seguridad y el rendimiento del procesamiento de reglas.</t>
+          <t>Utilice el análisis de políticas para identificar posibles problemas en las directivas, como el cumplimiento de los límites de las políticas, las reglas incorrectas y el uso incorrecto de grupos de IP. Obtenga recomendaciones para mejorar su posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1940,7 +1940,7 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Utilice grupos de direcciones IP para resumir los intervalos de direcciones IP y evitar superar el límite de reglas de red de origen o destino único. Azure Firewall trata el grupo de direcciones IP como una única dirección al crear reglas de red.</t>
+          <t>Utilice los grupos de direcciones IP para resumir los intervalos de direcciones IP y evitar superar el límite de las reglas de red de origen o destino único. Azure Firewall trata el grupo IP como una única dirección al crear reglas de red.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Habilite IDPS en modo de alerta y denegación para detectar y prevenir actividades maliciosas en la red. Esta característica podría introducir una penalización del rendimiento. Comprenda el efecto en su carga de trabajo para que pueda planificar en consecuencia.</t>
+          <t>Habilite IDPS en modo de alerta y denegación para detectar y prevenir actividad de red maliciosa. Esta característica podría introducir una penalización en el rendimiento. Comprenda el efecto en su carga de trabajo para que pueda planificar en consecuencia.</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
